--- a/5.0.0/StructureDefinition-cdm-claim-drug.xlsx
+++ b/5.0.0/StructureDefinition-cdm-claim-drug.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6798" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="874">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1865,6 +1865,16 @@
   </si>
   <si>
     <t>Indicates whether the claim is a crossover claim where a portion is paid by Medicare</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/line-of-business}
+</t>
+  </si>
+  <si>
+    <t>Code for the line of business</t>
   </si>
   <si>
     <t>priorAuthorizationIndicator</t>
@@ -3015,7 +3025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL198"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15286,43 +15296,41 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>129</v>
+        <v>599</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>75</v>
       </c>
@@ -15370,7 +15378,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
@@ -15379,7 +15387,7 @@
         <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>135</v>
@@ -15396,40 +15404,42 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N115" t="s" s="2">
-        <v>602</v>
+        <v>213</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
@@ -15478,19 +15488,19 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>367</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
@@ -15499,12 +15509,12 @@
         <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15527,19 +15537,17 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -15588,7 +15596,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>83</v>
@@ -15614,7 +15622,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15622,7 +15630,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>83</v>
@@ -15634,22 +15642,22 @@
         <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15698,10 +15706,10 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -15713,10 +15721,10 @@
         <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15724,7 +15732,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15732,7 +15740,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -15744,20 +15752,22 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15806,10 +15816,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -15821,10 +15831,10 @@
         <v>96</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>75</v>
@@ -15832,7 +15842,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15840,7 +15850,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>83</v>
@@ -15852,20 +15862,20 @@
         <v>75</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>617</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -15914,10 +15924,10 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -15940,7 +15950,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15951,7 +15961,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>75</v>
@@ -15966,16 +15976,14 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" s="2"/>
+      <c r="N120" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -16024,13 +16032,13 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16050,7 +16058,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16061,7 +16069,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>75</v>
@@ -16073,19 +16081,19 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16134,13 +16142,13 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>75</v>
@@ -16160,7 +16168,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16183,17 +16191,19 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>356</v>
+        <v>631</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
@@ -16242,7 +16252,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16268,7 +16278,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16291,16 +16301,18 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>164</v>
+        <v>637</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>165</v>
+        <v>638</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
       </c>
@@ -16348,7 +16360,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>166</v>
+        <v>636</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16360,7 +16372,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -16369,23 +16381,23 @@
         <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>75</v>
@@ -16397,17 +16409,15 @@
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>75</v>
@@ -16456,19 +16466,19 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>75</v>
@@ -16482,11 +16492,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16499,26 +16509,24 @@
         <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N125" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16566,7 +16574,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>73</v>
@@ -16587,47 +16595,47 @@
         <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>641</v>
+        <v>129</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>642</v>
+        <v>365</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>644</v>
+        <v>212</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>645</v>
+        <v>213</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>75</v>
@@ -16676,19 +16684,19 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>640</v>
+        <v>367</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
@@ -16697,12 +16705,12 @@
         <v>75</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16710,7 +16718,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>83</v>
@@ -16725,17 +16733,19 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>178</v>
+        <v>644</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>75</v>
@@ -16760,13 +16770,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>651</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16784,10 +16794,10 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>83</v>
@@ -16810,7 +16820,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16833,17 +16843,17 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>653</v>
+        <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -16868,13 +16878,13 @@
         <v>75</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>75</v>
+        <v>653</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>75</v>
@@ -16892,7 +16902,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16918,7 +16928,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16929,7 +16939,7 @@
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -16941,17 +16951,17 @@
         <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>356</v>
+        <v>656</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -17000,13 +17010,13 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -17026,7 +17036,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17037,7 +17047,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>75</v>
@@ -17049,16 +17059,18 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>165</v>
+        <v>662</v>
       </c>
       <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>75</v>
       </c>
@@ -17106,19 +17118,19 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>166</v>
+        <v>660</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
@@ -17127,12 +17139,12 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17143,7 +17155,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17155,13 +17167,13 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17200,29 +17212,31 @@
         <v>75</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB131" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>75</v>
@@ -17231,16 +17245,14 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
         <v>75</v>
       </c>
@@ -17249,7 +17261,7 @@
         <v>73</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>75</v>
@@ -17261,13 +17273,13 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>664</v>
+        <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>665</v>
+        <v>130</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>665</v>
+        <v>131</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17306,16 +17318,14 @@
         <v>75</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB132" s="2"/>
       <c r="AC132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>170</v>
@@ -17327,7 +17337,7 @@
         <v>74</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>135</v>
@@ -17339,12 +17349,12 @@
         <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>666</v>
@@ -17452,7 +17462,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>669</v>
@@ -17560,7 +17570,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>672</v>
@@ -17668,7 +17678,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>675</v>
@@ -17759,7 +17769,7 @@
         <v>74</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>135</v>
@@ -17776,7 +17786,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>678</v>
@@ -17884,43 +17894,41 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>129</v>
+        <v>682</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>365</v>
+        <v>683</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>75</v>
       </c>
@@ -17968,7 +17976,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>73</v>
@@ -17994,40 +18002,42 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N139" t="s" s="2">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -18076,19 +18086,19 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>682</v>
+        <v>367</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>75</v>
@@ -18097,12 +18107,12 @@
         <v>75</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18110,10 +18120,10 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>75</v>
@@ -18128,14 +18138,14 @@
         <v>436</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>75</v>
@@ -18184,13 +18194,13 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>75</v>
@@ -18210,7 +18220,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18236,14 +18246,14 @@
         <v>436</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>75</v>
@@ -18292,7 +18302,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
@@ -18318,7 +18328,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18344,14 +18354,14 @@
         <v>436</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>75</v>
@@ -18400,7 +18410,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
@@ -18426,7 +18436,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18452,14 +18462,14 @@
         <v>436</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>75</v>
@@ -18508,7 +18518,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>73</v>
@@ -18534,7 +18544,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18545,7 +18555,7 @@
         <v>73</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>75</v>
@@ -18557,17 +18567,17 @@
         <v>75</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>75</v>
@@ -18592,13 +18602,13 @@
         <v>75</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -18616,13 +18626,13 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>75</v>
@@ -18642,7 +18652,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18668,16 +18678,14 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -18705,10 +18713,10 @@
         <v>343</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>75</v>
@@ -18726,7 +18734,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
@@ -18752,15 +18760,15 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>716</v>
+        <v>75</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>83</v>
@@ -18778,16 +18786,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>75</v>
@@ -18814,9 +18822,11 @@
       <c r="W146" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X146" s="2"/>
+      <c r="X146" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="Y146" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>75</v>
@@ -18834,10 +18844,10 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>83</v>
@@ -18860,18 +18870,18 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>75</v>
+        <v>719</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>75</v>
@@ -18886,16 +18896,16 @@
         <v>178</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>75</v>
@@ -18922,11 +18932,9 @@
       <c r="W147" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X147" t="s" s="2">
-        <v>727</v>
-      </c>
+      <c r="X147" s="2"/>
       <c r="Y147" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>75</v>
@@ -18944,13 +18952,13 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>75</v>
@@ -18970,7 +18978,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18996,16 +19004,16 @@
         <v>178</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -19033,10 +19041,10 @@
         <v>343</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>75</v>
@@ -19054,7 +19062,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -19080,7 +19088,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19091,7 +19099,7 @@
         <v>73</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>75</v>
@@ -19103,17 +19111,19 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="N149" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>75</v>
@@ -19138,13 +19148,13 @@
         <v>75</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>75</v>
+        <v>738</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>75</v>
@@ -19162,13 +19172,13 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>75</v>
@@ -19180,7 +19190,7 @@
         <v>75</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>75</v>
@@ -19188,7 +19198,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19211,17 +19221,17 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>75</v>
@@ -19246,13 +19256,13 @@
         <v>75</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>745</v>
+        <v>75</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>746</v>
+        <v>75</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>75</v>
@@ -19270,7 +19280,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
@@ -19288,7 +19298,7 @@
         <v>75</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>75</v>
@@ -19296,7 +19306,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19319,17 +19329,17 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>75</v>
@@ -19354,13 +19364,13 @@
         <v>75</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>75</v>
+        <v>749</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>75</v>
@@ -19378,7 +19388,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>73</v>
@@ -19396,7 +19406,7 @@
         <v>75</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>75</v>
@@ -19404,7 +19414,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19427,16 +19437,18 @@
         <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>85</v>
+        <v>751</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>164</v>
+        <v>752</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>165</v>
+        <v>753</v>
       </c>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19484,7 +19496,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>166</v>
+        <v>750</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>73</v>
@@ -19496,7 +19508,7 @@
         <v>75</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>75</v>
@@ -19505,23 +19517,23 @@
         <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>75</v>
@@ -19533,17 +19545,15 @@
         <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>75</v>
@@ -19580,31 +19590,31 @@
         <v>75</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>75</v>
@@ -19618,20 +19628,18 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>75</v>
@@ -19643,15 +19651,17 @@
         <v>75</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>755</v>
+        <v>129</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>756</v>
+        <v>225</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>75</v>
@@ -19688,16 +19698,16 @@
         <v>75</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE154" t="s" s="2">
         <v>170</v>
@@ -19721,14 +19731,16 @@
         <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
         <v>75</v>
       </c>
@@ -19746,7 +19758,7 @@
         <v>75</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>758</v>
@@ -19755,14 +19767,10 @@
         <v>759</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>762</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>75</v>
       </c>
@@ -19810,19 +19818,19 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>763</v>
+        <v>170</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>75</v>
@@ -19831,12 +19839,12 @@
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>764</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19847,80 +19855,80 @@
         <v>73</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>105</v>
+        <v>761</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE156" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="Q156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>73</v>
@@ -19941,12 +19949,12 @@
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19957,34 +19965,36 @@
         <v>73</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>772</v>
+      </c>
       <c r="Q157" t="s" s="2">
         <v>75</v>
       </c>
@@ -20004,13 +20014,13 @@
         <v>75</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>75</v>
+        <v>773</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>75</v>
+        <v>774</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>75</v>
@@ -20028,7 +20038,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>73</v>
@@ -20049,12 +20059,12 @@
         <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20077,17 +20087,17 @@
         <v>84</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>75</v>
@@ -20136,7 +20146,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>73</v>
@@ -20145,7 +20155,7 @@
         <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>785</v>
+        <v>75</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>96</v>
@@ -20157,12 +20167,12 @@
         <v>75</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20185,19 +20195,17 @@
         <v>84</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>790</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>75</v>
@@ -20246,7 +20254,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>73</v>
@@ -20255,7 +20263,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>75</v>
+        <v>788</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>96</v>
@@ -20267,12 +20275,12 @@
         <v>75</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20292,20 +20300,22 @@
         <v>75</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>795</v>
+        <v>105</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="N160" t="s" s="2">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>75</v>
@@ -20354,7 +20364,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>73</v>
@@ -20375,12 +20385,12 @@
         <v>75</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>75</v>
+        <v>796</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20403,19 +20413,17 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" s="2"/>
+      <c r="N161" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -20464,7 +20472,7 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>73</v>
@@ -20490,7 +20498,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20513,19 +20521,19 @@
         <v>75</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>75</v>
@@ -20574,7 +20582,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>73</v>
@@ -20600,7 +20608,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20611,7 +20619,7 @@
         <v>73</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>75</v>
@@ -20623,17 +20631,19 @@
         <v>75</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>583</v>
+        <v>811</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>75</v>
@@ -20682,13 +20692,13 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>75</v>
@@ -20708,7 +20718,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20719,7 +20729,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>75</v>
@@ -20731,19 +20741,17 @@
         <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>178</v>
+        <v>580</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>811</v>
+        <v>581</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>813</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>814</v>
+        <v>583</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>75</v>
@@ -20768,13 +20776,13 @@
         <v>75</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>815</v>
+        <v>75</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>816</v>
+        <v>75</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>75</v>
@@ -20792,13 +20800,13 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>75</v>
@@ -20818,7 +20826,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20829,7 +20837,7 @@
         <v>73</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>75</v>
@@ -20844,14 +20852,16 @@
         <v>178</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="M165" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>816</v>
+      </c>
       <c r="N165" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>75</v>
@@ -20879,10 +20889,10 @@
         <v>343</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>75</v>
@@ -20900,13 +20910,13 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>75</v>
@@ -20926,7 +20936,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20949,19 +20959,17 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>823</v>
+        <v>178</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>75</v>
@@ -20986,13 +20994,13 @@
         <v>75</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>75</v>
+        <v>823</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>75</v>
+        <v>824</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>75</v>
@@ -21010,7 +21018,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>73</v>
@@ -21025,7 +21033,7 @@
         <v>96</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>828</v>
+        <v>75</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>75</v>
@@ -21036,7 +21044,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21059,17 +21067,19 @@
         <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>356</v>
+        <v>826</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>658</v>
+        <v>827</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="M167" s="2"/>
-      <c r="N167" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>75</v>
@@ -21118,7 +21128,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>73</v>
@@ -21133,7 +21143,7 @@
         <v>96</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>75</v>
+        <v>831</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>75</v>
@@ -21144,7 +21154,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21155,7 +21165,7 @@
         <v>73</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>75</v>
@@ -21167,16 +21177,18 @@
         <v>75</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>165</v>
+        <v>833</v>
       </c>
       <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
+      <c r="N168" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>75</v>
       </c>
@@ -21224,19 +21236,19 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>166</v>
+        <v>832</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>75</v>
@@ -21245,12 +21257,12 @@
         <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21261,7 +21273,7 @@
         <v>73</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>75</v>
@@ -21273,13 +21285,13 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -21318,29 +21330,31 @@
         <v>75</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB169" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>75</v>
@@ -21349,16 +21363,14 @@
         <v>75</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>833</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
         <v>75</v>
       </c>
@@ -21367,7 +21379,7 @@
         <v>73</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>75</v>
@@ -21379,13 +21391,13 @@
         <v>75</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>834</v>
+        <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>835</v>
+        <v>130</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>835</v>
+        <v>131</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21424,16 +21436,14 @@
         <v>75</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB170" s="2"/>
       <c r="AC170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>170</v>
@@ -21445,7 +21455,7 @@
         <v>74</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>135</v>
@@ -21457,48 +21467,46 @@
         <v>75</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>129</v>
+        <v>837</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>365</v>
+        <v>838</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>75</v>
       </c>
@@ -21546,7 +21554,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>73</v>
@@ -21555,7 +21563,7 @@
         <v>74</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>135</v>
@@ -21572,40 +21580,42 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M172" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N172" t="s" s="2">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -21654,19 +21664,19 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>837</v>
+        <v>367</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>75</v>
@@ -21675,12 +21685,12 @@
         <v>75</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21688,7 +21698,7 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>83</v>
@@ -21703,17 +21713,17 @@
         <v>75</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -21738,13 +21748,13 @@
         <v>75</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>75</v>
@@ -21762,10 +21772,10 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>83</v>
@@ -21788,7 +21798,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21814,16 +21824,14 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -21851,10 +21859,10 @@
         <v>343</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>75</v>
@@ -21872,7 +21880,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>73</v>
@@ -21898,15 +21906,15 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
-        <v>716</v>
+        <v>75</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F175" t="s" s="2">
         <v>83</v>
@@ -21924,16 +21932,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -21960,9 +21968,11 @@
       <c r="W175" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X175" s="2"/>
+      <c r="X175" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="Y175" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>75</v>
@@ -21980,10 +21990,10 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>83</v>
@@ -22006,18 +22016,18 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>75</v>
+        <v>719</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>75</v>
@@ -22032,16 +22042,16 @@
         <v>178</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>842</v>
+        <v>720</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>843</v>
+        <v>722</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>75</v>
@@ -22068,11 +22078,9 @@
       <c r="W176" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X176" t="s" s="2">
-        <v>727</v>
-      </c>
+      <c r="X176" s="2"/>
       <c r="Y176" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>75</v>
@@ -22090,13 +22098,13 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>75</v>
@@ -22142,16 +22150,16 @@
         <v>178</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>730</v>
+        <v>845</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -22179,10 +22187,10 @@
         <v>343</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>75</v>
@@ -22226,7 +22234,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22237,7 +22245,7 @@
         <v>73</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>75</v>
@@ -22249,17 +22257,19 @@
         <v>75</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>748</v>
+        <v>178</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="N178" t="s" s="2">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>75</v>
@@ -22284,13 +22294,13 @@
         <v>75</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>75</v>
+        <v>738</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>75</v>
@@ -22308,13 +22318,13 @@
         <v>75</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>75</v>
@@ -22334,7 +22344,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22357,17 +22367,17 @@
         <v>75</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>75</v>
@@ -22416,7 +22426,7 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>73</v>
@@ -22442,7 +22452,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22465,19 +22475,17 @@
         <v>75</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" s="2"/>
+      <c r="N180" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>75</v>
@@ -22526,7 +22534,7 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>73</v>
@@ -22552,7 +22560,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22575,19 +22583,19 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>75</v>
@@ -22636,7 +22644,7 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>73</v>
@@ -22662,7 +22670,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22673,7 +22681,7 @@
         <v>73</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>75</v>
@@ -22685,17 +22693,19 @@
         <v>75</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M182" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="N182" t="s" s="2">
-        <v>583</v>
+        <v>811</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>75</v>
@@ -22744,13 +22754,13 @@
         <v>75</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>75</v>
@@ -22770,7 +22780,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22793,17 +22803,17 @@
         <v>75</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>356</v>
+        <v>580</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>658</v>
+        <v>581</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>830</v>
+        <v>582</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>660</v>
+        <v>583</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>75</v>
@@ -22852,7 +22862,7 @@
         <v>75</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>73</v>
@@ -22878,7 +22888,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22889,7 +22899,7 @@
         <v>73</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>75</v>
@@ -22901,16 +22911,18 @@
         <v>75</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>165</v>
+        <v>833</v>
       </c>
       <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
+      <c r="N184" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O184" t="s" s="2">
         <v>75</v>
       </c>
@@ -22958,19 +22970,19 @@
         <v>75</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>166</v>
+        <v>853</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>75</v>
@@ -22979,23 +22991,23 @@
         <v>75</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>75</v>
@@ -23007,17 +23019,15 @@
         <v>75</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
         <v>75</v>
@@ -23066,19 +23076,19 @@
         <v>75</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>75</v>
@@ -23092,11 +23102,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -23109,26 +23119,24 @@
         <v>75</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M186" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N186" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
         <v>75</v>
       </c>
@@ -23176,7 +23184,7 @@
         <v>75</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>73</v>
@@ -23197,45 +23205,47 @@
         <v>75</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M187" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N187" t="s" s="2">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>75</v>
@@ -23284,19 +23294,19 @@
         <v>75</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>854</v>
+        <v>367</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>75</v>
@@ -23305,12 +23315,12 @@
         <v>75</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23318,7 +23328,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>83</v>
@@ -23333,17 +23343,17 @@
         <v>75</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>75</v>
@@ -23368,13 +23378,13 @@
         <v>75</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>75</v>
@@ -23392,10 +23402,10 @@
         <v>75</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>83</v>
@@ -23418,7 +23428,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23444,16 +23454,14 @@
         <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>75</v>
@@ -23481,10 +23489,10 @@
         <v>343</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>75</v>
@@ -23502,7 +23510,7 @@
         <v>75</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>73</v>
@@ -23528,7 +23536,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23536,7 +23544,7 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F190" t="s" s="2">
         <v>83</v>
@@ -23554,16 +23562,16 @@
         <v>178</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>75</v>
@@ -23591,31 +23599,31 @@
         <v>343</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>858</v>
+        <v>716</v>
       </c>
       <c r="Y190" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE190" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="Z190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>857</v>
-      </c>
       <c r="AF190" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>83</v>
@@ -23646,10 +23654,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>75</v>
@@ -23664,16 +23672,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>842</v>
+        <v>720</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>843</v>
+        <v>722</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>75</v>
@@ -23701,10 +23709,10 @@
         <v>343</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>727</v>
+        <v>861</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>728</v>
+        <v>862</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>75</v>
@@ -23725,10 +23733,10 @@
         <v>860</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>75</v>
@@ -23748,7 +23756,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23774,16 +23782,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>730</v>
+        <v>845</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>75</v>
@@ -23811,10 +23819,10 @@
         <v>343</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>75</v>
@@ -23832,7 +23840,7 @@
         <v>75</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>73</v>
@@ -23858,7 +23866,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23869,7 +23877,7 @@
         <v>73</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>75</v>
@@ -23881,17 +23889,19 @@
         <v>75</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>748</v>
+        <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M193" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="N193" t="s" s="2">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>75</v>
@@ -23916,13 +23926,13 @@
         <v>75</v>
       </c>
       <c r="W193" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>75</v>
+        <v>738</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>75</v>
@@ -23940,13 +23950,13 @@
         <v>75</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>75</v>
@@ -23966,7 +23976,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23989,17 +23999,17 @@
         <v>75</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>75</v>
@@ -24048,7 +24058,7 @@
         <v>75</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>73</v>
@@ -24074,7 +24084,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24097,19 +24107,17 @@
         <v>75</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="K195" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L195" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L195" t="s" s="2">
+      <c r="M195" s="2"/>
+      <c r="N195" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>75</v>
@@ -24158,7 +24166,7 @@
         <v>75</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>73</v>
@@ -24184,7 +24192,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24207,19 +24215,19 @@
         <v>75</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>75</v>
@@ -24268,7 +24276,7 @@
         <v>75</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>73</v>
@@ -24294,7 +24302,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24305,7 +24313,7 @@
         <v>73</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>75</v>
@@ -24317,17 +24325,19 @@
         <v>75</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M197" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="N197" t="s" s="2">
-        <v>583</v>
+        <v>811</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>75</v>
@@ -24376,13 +24386,13 @@
         <v>75</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>75</v>
@@ -24402,7 +24412,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24413,7 +24423,7 @@
         <v>73</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>75</v>
@@ -24425,17 +24435,17 @@
         <v>75</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>795</v>
+        <v>580</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>868</v>
+        <v>581</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>869</v>
+        <v>582</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>870</v>
+        <v>583</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>75</v>
@@ -24484,13 +24494,13 @@
         <v>75</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>75</v>
@@ -24505,6 +24515,114 @@
         <v>75</v>
       </c>
       <c r="AL198" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="M199" s="2"/>
+      <c r="N199" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL199" t="s" s="2">
         <v>75</v>
       </c>
     </row>
